--- a/Чек-лист-приклад (UK)(198).xlsx
+++ b/Чек-лист-приклад (UK)(198).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\ITStep\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E1CA2E-F822-43E0-B9D8-89FAF6C09C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23955" windowHeight="7140" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Верстка" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="115">
   <si>
     <t>Браузер версія</t>
   </si>
@@ -365,11 +366,20 @@
   <si>
     <t>GoogleChrome 111.0.5563.65</t>
   </si>
+  <si>
+    <t>IPhone 12 pro</t>
+  </si>
+  <si>
+    <t>https://qa31.mantishub.io/view.php?id=8</t>
+  </si>
+  <si>
+    <t>https://qa31.mantishub.io/view.php?id=9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -555,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -693,10 +703,13 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="36">
     <dxf>
@@ -1627,7 +1640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -20801,7 +20814,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -20809,10 +20822,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -21209,7 +21222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -41488,22 +41501,22 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -41523,7 +41536,7 @@
         <v>88</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>82</v>
@@ -41633,11 +41646,9 @@
         <v>14</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>59</v>
-      </c>
+      <c r="C6" s="21"/>
       <c r="D6" s="6"/>
       <c r="E6" s="13" t="s">
         <v>6</v>
@@ -41661,9 +41672,11 @@
         <v>19</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="9" t="s">
         <v>4</v>
@@ -41686,10 +41699,12 @@
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
+      <c r="B8" s="43" t="s">
+        <v>10</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -41774,8 +41789,8 @@
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
+      <c r="B12" s="47" t="s">
+        <v>6</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -41796,8 +41811,8 @@
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>11</v>
+      <c r="B13" s="47" t="s">
+        <v>6</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -59651,15 +59666,12 @@
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -60017,7 +60029,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Чек-лист-приклад (UK)(198).xlsx
+++ b/Чек-лист-приклад (UK)(198).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\ITStep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\New Papka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E1CA2E-F822-43E0-B9D8-89FAF6C09C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Верстка" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="119">
   <si>
     <t>Браузер версія</t>
   </si>
@@ -295,9 +294,6 @@
     <t>Браузер/версія</t>
   </si>
   <si>
-    <t>Назва сайту</t>
-  </si>
-  <si>
     <t>Перевірити коректне відображення спливаючих вікон з помилками/повідомленнями</t>
   </si>
   <si>
@@ -375,11 +371,27 @@
   <si>
     <t>https://qa31.mantishub.io/view.php?id=9</t>
   </si>
+  <si>
+    <t>Opera GX LVL4</t>
+  </si>
+  <si>
+    <t>FF 
+111.0.1</t>
+  </si>
+  <si>
+    <t>https://qa31.mantishub.io/view.php?id=38</t>
+  </si>
+  <si>
+    <t>https://qa31.mantishub.io/view.php?id=39</t>
+  </si>
+  <si>
+    <t>https://qa31.mantishub.io/view.php?id=40</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -462,7 +474,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +535,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -565,7 +583,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -688,10 +706,13 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -703,13 +724,13 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="36">
     <dxf>
@@ -1640,7 +1661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1692,12 +1713,12 @@
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -1835,12 +1856,12 @@
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1964,12 +1985,12 @@
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
@@ -2039,12 +2060,12 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
@@ -20814,7 +20835,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -20822,11 +20843,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20849,13 +20870,13 @@
         <v>62</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>82</v>
@@ -20883,11 +20904,11 @@
       <c r="C2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
+      <c r="D2" s="40" t="s">
+        <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
+      <c r="E2" s="40" t="s">
+        <v>6</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="6"/>
@@ -20903,13 +20924,15 @@
       <c r="C3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
+      <c r="D3" s="35" t="s">
+        <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
+      <c r="E3" s="35" t="s">
+        <v>10</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="G3" s="36" t="s">
         <v>10</v>
       </c>
@@ -20927,11 +20950,11 @@
       <c r="C4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
+      <c r="D4" s="41" t="s">
+        <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
+      <c r="E4" s="41" t="s">
+        <v>6</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>6</v>
@@ -20950,11 +20973,11 @@
       <c r="C5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
+      <c r="D5" s="41" t="s">
+        <v>6</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
+      <c r="E5" s="41" t="s">
+        <v>6</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="38" t="s">
@@ -20974,11 +20997,11 @@
       <c r="C6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
+      <c r="D6" s="41" t="s">
+        <v>6</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
+      <c r="E6" s="41" t="s">
+        <v>6</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -20994,11 +21017,11 @@
       <c r="C7" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
+      <c r="D7" s="41" t="s">
+        <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>11</v>
+      <c r="E7" s="41" t="s">
+        <v>6</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="20"/>
@@ -21014,11 +21037,11 @@
       <c r="C8" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
+      <c r="D8" s="41" t="s">
+        <v>6</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>11</v>
+      <c r="E8" s="41" t="s">
+        <v>6</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -21031,14 +21054,14 @@
       <c r="B9" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>10</v>
+      <c r="C9" s="41" t="s">
+        <v>6</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
+      <c r="D9" s="41" t="s">
+        <v>6</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>11</v>
+      <c r="E9" s="41" t="s">
+        <v>6</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -21049,16 +21072,16 @@
         <v>77</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
+      <c r="D10" s="41" t="s">
+        <v>6</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>11</v>
+      <c r="E10" s="41" t="s">
+        <v>6</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -21071,16 +21094,18 @@
       <c r="B11" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
+      <c r="D11" s="42" t="s">
+        <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>11</v>
+      <c r="E11" s="42" t="s">
+        <v>10</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="20"/>
     </row>
@@ -21196,22 +21221,22 @@
       <c r="H23" s="20"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:E1 G3:G5 C17:E23 C2:C3">
+  <conditionalFormatting sqref="G3:G5 C17:E23 C1:E3">
     <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E1 G3:G5 C17:E23 C2:C3">
+  <conditionalFormatting sqref="G3:G5 C17:E23 C1:E3">
     <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E1 G3:G5 C17:E23 C2:C3">
+  <conditionalFormatting sqref="G3:G5 C17:E23 C1:E3">
     <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E1 G3:G5 C17:E23 C2:C3">
+  <conditionalFormatting sqref="G3:G5 C17:E23 C1:E3">
     <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(C1))))</formula>
     </cfRule>
@@ -21222,7 +21247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -41501,14 +41526,14 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -41516,7 +41541,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -41533,10 +41558,10 @@
   <sheetData>
     <row r="1" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>82</v>
@@ -41602,10 +41627,10 @@
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="46" t="s">
         <v>84</v>
       </c>
       <c r="G4" s="6"/>
@@ -41628,8 +41653,8 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="45"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -41674,8 +41699,8 @@
       <c r="B7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>113</v>
+      <c r="C7" s="48" t="s">
+        <v>112</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="9" t="s">
@@ -41699,11 +41724,11 @@
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>114</v>
+      <c r="C8" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -41723,8 +41748,8 @@
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
+      <c r="B9" s="44" t="s">
+        <v>4</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -41743,10 +41768,10 @@
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
+      <c r="B10" s="44" t="s">
+        <v>4</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -41767,8 +41792,8 @@
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
+      <c r="B11" s="44" t="s">
+        <v>4</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -41789,7 +41814,7 @@
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="6"/>
@@ -41811,7 +41836,7 @@
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="6"/>
@@ -41833,8 +41858,8 @@
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>11</v>
+      <c r="B14" s="43" t="s">
+        <v>6</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -41855,8 +41880,8 @@
       <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>11</v>
+      <c r="B15" s="43" t="s">
+        <v>6</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -41877,8 +41902,8 @@
       <c r="A16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>11</v>
+      <c r="B16" s="43" t="s">
+        <v>6</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -41899,8 +41924,8 @@
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>11</v>
+      <c r="B17" s="43" t="s">
+        <v>6</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -41921,8 +41946,8 @@
       <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>11</v>
+      <c r="B18" s="43" t="s">
+        <v>6</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -41943,10 +41968,12 @@
       <c r="A19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>11</v>
+      <c r="B19" s="42" t="s">
+        <v>10</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -59666,12 +59693,15 @@
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -59688,10 +59718,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>82</v>
@@ -59712,33 +59742,33 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="46" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="45"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>10</v>
@@ -59756,7 +59786,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>4</v>
@@ -59772,7 +59802,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -59782,7 +59812,7 @@
     </row>
     <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>11</v>
@@ -59794,7 +59824,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>11</v>
@@ -59806,7 +59836,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -59816,7 +59846,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>11</v>
@@ -59828,7 +59858,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>11</v>
@@ -59840,7 +59870,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -59850,7 +59880,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>11</v>
@@ -59862,7 +59892,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>11</v>
@@ -59874,7 +59904,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>11</v>
@@ -59886,7 +59916,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>11</v>
@@ -59898,7 +59928,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -59908,7 +59938,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>11</v>
@@ -59920,7 +59950,7 @@
     </row>
     <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>11</v>
@@ -60029,7 +60059,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Чек-лист-приклад (UK)(198).xlsx
+++ b/Чек-лист-приклад (UK)(198).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="121">
   <si>
     <t>Браузер версія</t>
   </si>
@@ -387,12 +387,18 @@
   <si>
     <t>https://qa31.mantishub.io/view.php?id=40</t>
   </si>
+  <si>
+    <t>Запам'ятовуваність</t>
+  </si>
+  <si>
+    <t>Після того, як користувач знову повернеться до інтерфейсу через певний проміжок часу, наскільки легко йому відновити свої навички роботи з даним інтерфейсом?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -471,6 +477,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF29313F"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F40"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -583,7 +604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -715,6 +736,9 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -724,8 +748,14 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1713,12 +1743,12 @@
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -1856,12 +1886,12 @@
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1985,12 +2015,12 @@
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
@@ -2060,12 +2090,12 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
@@ -20847,7 +20877,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21129,8 +21159,13 @@
       <c r="G13" s="6"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+    <row r="14" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>120</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -21138,13 +21173,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -41627,10 +41662,10 @@
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="47" t="s">
         <v>84</v>
       </c>
       <c r="G4" s="6"/>
@@ -41653,8 +41688,8 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="46"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -41699,7 +41734,7 @@
       <c r="B7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="45" t="s">
         <v>112</v>
       </c>
       <c r="D7" s="6"/>
@@ -59747,10 +59782,10 @@
       <c r="B3" s="20"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="47" t="s">
         <v>84</v>
       </c>
     </row>
@@ -59763,8 +59798,8 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="46"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">

--- a/Чек-лист-приклад (UK)(198).xlsx
+++ b/Чек-лист-приклад (UK)(198).xlsx
@@ -13,17 +13,18 @@
   </bookViews>
   <sheets>
     <sheet name="Верстка" sheetId="1" r:id="rId1"/>
-    <sheet name="Usability" sheetId="4" r:id="rId2"/>
-    <sheet name="Функціонал" sheetId="2" r:id="rId3"/>
-    <sheet name="Моб.пристрій (сайт)" sheetId="3" r:id="rId4"/>
-    <sheet name="Моб.пристрій (додаток)" sheetId="5" r:id="rId5"/>
+    <sheet name="Функціонал" sheetId="2" r:id="rId2"/>
+    <sheet name="Usability" sheetId="4" r:id="rId3"/>
+    <sheet name="Локалізація" sheetId="8" r:id="rId4"/>
+    <sheet name="Моб.пристрій (сайт)" sheetId="3" r:id="rId5"/>
+    <sheet name="Моб.пристрій (додаток)" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="131">
   <si>
     <t>Браузер версія</t>
   </si>
@@ -393,6 +394,36 @@
   <si>
     <t>Після того, як користувач знову повернеться до інтерфейсу через певний проміжок часу, наскільки легко йому відновити свої навички роботи з даним інтерфейсом?</t>
   </si>
+  <si>
+    <t>Переклад інтерфейсу користувача</t>
+  </si>
+  <si>
+    <t>Переклад документації</t>
+  </si>
+  <si>
+    <t>Контроль формату дати і часу</t>
+  </si>
+  <si>
+    <t>Увага до грошових одиниць</t>
+  </si>
+  <si>
+    <t>Увага до правових особливостей</t>
+  </si>
+  <si>
+    <t>Контроль символіки та кольорів</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>skipped</t>
+  </si>
+  <si>
+    <t>https://qa31.mantishub.io/view.php?id=55</t>
+  </si>
+  <si>
+    <t>https://qa31.mantishub.io/view.php?id=56</t>
+  </si>
 </sst>
 </file>
 
@@ -495,7 +526,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,8 +593,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF00B0F0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -599,12 +648,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -739,6 +803,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -748,13 +821,71 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -762,7 +893,223 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -1743,12 +2090,12 @@
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -1886,12 +2233,12 @@
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2015,12 +2362,12 @@
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
@@ -2090,12 +2437,12 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
@@ -20845,22 +21192,22 @@
     <mergeCell ref="A15:D15"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:D1 B3:D4 F3:F5 B26:D1000 B17:D24 B5">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 B3:D4 F3:F5 B26:D1000 B17:D24 B5">
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 B3:D4 F3:F5 B26:D1000 B17:D24 B5">
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 B3:D4 F3:F5 B26:D1000 B17:D24 B5">
-    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20873,415 +21220,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="42.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="74" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" s="20" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:18" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="20"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="20"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G3:G5 C17:E23 C1:E3">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="not run">
-      <formula>NOT(ISERROR(SEARCH(("not run"),(C1))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G5 C17:E23 C1:E3">
-    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH(("Passed"),(C1))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G5 C17:E23 C1:E3">
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(C1))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G5 C17:E23 C1:E3">
-    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="Skipped">
-      <formula>NOT(ISERROR(SEARCH(("Skipped"),(C1))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -41501,62 +41439,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="38" priority="2" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="36" priority="4" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="34" priority="6" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="30" priority="10" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="28" priority="12" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41564,6 +41502,415 @@
     <hyperlink ref="E4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="42.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="74" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="20" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:18" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="20"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G3:G5 C17:E23 C1:E3">
+    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="not run">
+      <formula>NOT(ISERROR(SEARCH(("not run"),(C1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G5 C17:E23 C1:E3">
+    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(C1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G5 C17:E23 C1:E3">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(C1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G5 C17:E23 C1:E3">
+    <cfRule type="containsText" dxfId="40" priority="4" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH(("Skipped"),(C1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -41575,6 +41922,1638 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="54.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" style="20" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="91.140625" style="20" customWidth="1"/>
+    <col min="7" max="9" width="17.28515625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="20" style="20" customWidth="1"/>
+    <col min="11" max="16" width="17.28515625" style="20" customWidth="1"/>
+    <col min="17" max="16384" width="14.42578125" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="63"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="68"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="52"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="56"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="57"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="57"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="57"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="57"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="57"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="57"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="57"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="24"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="24"/>
+      <c r="C30" s="18"/>
+    </row>
+    <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="24"/>
+      <c r="C31" s="18"/>
+    </row>
+    <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="24"/>
+      <c r="C32" s="18"/>
+    </row>
+    <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="24"/>
+      <c r="C33" s="18"/>
+    </row>
+    <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24"/>
+      <c r="C34" s="18"/>
+    </row>
+    <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="24"/>
+      <c r="C35" s="18"/>
+    </row>
+    <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="24"/>
+      <c r="C36" s="18"/>
+    </row>
+    <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="24"/>
+      <c r="C37" s="18"/>
+    </row>
+    <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="24"/>
+      <c r="C38" s="18"/>
+    </row>
+    <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="24"/>
+      <c r="C39" s="18"/>
+    </row>
+    <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="24"/>
+      <c r="C40" s="18"/>
+    </row>
+    <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="24"/>
+      <c r="C41" s="18"/>
+    </row>
+    <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="24"/>
+      <c r="C42" s="18"/>
+    </row>
+    <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24"/>
+      <c r="C43" s="18"/>
+    </row>
+    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="24"/>
+      <c r="C44" s="18"/>
+    </row>
+    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="24"/>
+      <c r="C45" s="18"/>
+    </row>
+    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="24"/>
+      <c r="C46" s="18"/>
+    </row>
+    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="24"/>
+      <c r="C47" s="18"/>
+    </row>
+    <row r="48" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="24"/>
+      <c r="C48" s="18"/>
+    </row>
+    <row r="49" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="25"/>
+    </row>
+    <row r="50" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="12.75" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2:B3 C2:D5 E1:F3 G1:J1000 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4 B5:B11">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="not run">
+      <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3 C2:D5 E1:F3 G1:J1000 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4 B5:B11">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3 C2:D5 E1:F3 G1:J1000 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4 B5:B11">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3 C2:D5 E1:F3 G1:J1000 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4 B5:B11">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="not run">
+      <formula>NOT(ISERROR(SEARCH(("not run"),(A2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(A2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(A2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH(("Skipped"),(A2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="not run">
+      <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:P1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
@@ -41662,10 +43641,10 @@
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="50" t="s">
         <v>84</v>
       </c>
       <c r="G4" s="6"/>
@@ -41688,8 +43667,8 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="47"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -59689,42 +61668,42 @@
     <mergeCell ref="E4:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B7 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B7 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B7 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B7 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59735,7 +61714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
@@ -59782,10 +61761,10 @@
       <c r="B3" s="20"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="50" t="s">
         <v>84</v>
       </c>
     </row>
@@ -59798,8 +61777,8 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="47"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -60054,42 +62033,42 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Чек-лист-приклад (UK)(198).xlsx
+++ b/Чек-лист-приклад (UK)(198).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\New Papka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\ITStep\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42790DE9-3796-4B1B-85A6-1005C0DDA1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Верстка" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="134">
   <si>
     <t>Браузер версія</t>
   </si>
@@ -298,12 +299,6 @@
     <t>Перевірити коректне відображення спливаючих вікон з помилками/повідомленнями</t>
   </si>
   <si>
-    <t>Назва додатку</t>
-  </si>
-  <si>
-    <t>Назва та модель моб. пристрою</t>
-  </si>
-  <si>
     <t>Функції на пристроях</t>
   </si>
   <si>
@@ -389,12 +384,6 @@
     <t>https://qa31.mantishub.io/view.php?id=40</t>
   </si>
   <si>
-    <t>Запам'ятовуваність</t>
-  </si>
-  <si>
-    <t>Після того, як користувач знову повернеться до інтерфейсу через певний проміжок часу, наскільки легко йому відновити свої навички роботи з даним інтерфейсом?</t>
-  </si>
-  <si>
     <t>Переклад інтерфейсу користувача</t>
   </si>
   <si>
@@ -424,12 +413,33 @@
   <si>
     <t>https://qa31.mantishub.io/view.php?id=56</t>
   </si>
+  <si>
+    <t xml:space="preserve">Iphone 13 </t>
+  </si>
+  <si>
+    <t>MyStat</t>
+  </si>
+  <si>
+    <t>Відсутність "крешей" під час роботи додатку</t>
+  </si>
+  <si>
+    <t>https://qa31.mantishub.io/view.php?id=57</t>
+  </si>
+  <si>
+    <t>Випадаючі елементи</t>
+  </si>
+  <si>
+    <t>Перевірити наявність та працездатність випадаючих елементів</t>
+  </si>
+  <si>
+    <t>https://qa31.mantishub.io/view.php?id=58</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -518,15 +528,8 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF3F3F40"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,6 +614,24 @@
         <bgColor rgb="FF00B0F0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -668,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -809,18 +830,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -861,9 +870,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -888,12 +894,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="48">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -1686,78 +1791,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1" shrinkToFit="0"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1" shrinkToFit="0"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1" shrinkToFit="0"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1" shrinkToFit="0"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2038,7 +2071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2090,12 +2123,12 @@
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -2233,12 +2266,12 @@
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2362,12 +2395,12 @@
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
@@ -2437,12 +2470,12 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
@@ -21212,7 +21245,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -21220,7 +21253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -41439,78 +41472,78 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="38" priority="2" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="36" priority="4" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="40" priority="4" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="34" priority="6" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="38" priority="6" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="36" priority="8" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="30" priority="10" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="34" priority="10" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="33" priority="11" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="28" priority="12" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41533,13 +41566,13 @@
         <v>62</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>82</v>
@@ -41594,7 +41627,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>10</v>
@@ -41735,7 +41768,7 @@
         <v>77</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>6</v>
@@ -41766,8 +41799,8 @@
       <c r="E11" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>117</v>
+      <c r="F11" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="20"/>
@@ -41792,17 +41825,25 @@
       <c r="G13" s="6"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="47" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
-      <c r="B14" s="48" t="s">
-        <v>120</v>
+      <c r="B14" s="27" t="s">
+        <v>132</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="20"/>
     </row>
@@ -41890,22 +41931,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3:G5 C17:E23 C1:E3">
-    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5 C17:E23 C1:E3">
-    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5 C17:E23 C1:E3">
-    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5 C17:E23 C1:E3">
-    <cfRule type="containsText" dxfId="40" priority="4" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41915,13 +41956,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
@@ -41940,17 +41981,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>110</v>
+      <c r="B1" s="55" t="s">
+        <v>108</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -41964,13 +42005,13 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -41982,13 +42023,13 @@
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -42000,14 +42041,14 @@
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="66" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="72" t="s">
         <v>84</v>
       </c>
       <c r="G4" s="6"/>
@@ -42020,18 +42061,18 @@
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
-        <v>121</v>
+      <c r="A5" s="58" t="s">
+        <v>117</v>
       </c>
-      <c r="B5" s="67" t="s">
-        <v>127</v>
+      <c r="B5" s="62" t="s">
+        <v>123</v>
       </c>
-      <c r="C5" s="72" t="s">
-        <v>129</v>
+      <c r="C5" s="67" t="s">
+        <v>125</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="50"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -42042,15 +42083,15 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
-        <v>122</v>
+      <c r="A6" s="58" t="s">
+        <v>118</v>
       </c>
-      <c r="B6" s="67" t="s">
-        <v>127</v>
+      <c r="B6" s="62" t="s">
+        <v>123</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="69" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="64" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="20" t="s">
@@ -42062,15 +42103,15 @@
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
-        <v>123</v>
+      <c r="A7" s="58" t="s">
+        <v>119</v>
       </c>
-      <c r="B7" s="67" t="s">
-        <v>128</v>
+      <c r="B7" s="62" t="s">
+        <v>124</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="71" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="66" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="20" t="s">
@@ -42082,17 +42123,17 @@
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
-        <v>124</v>
+      <c r="A8" s="58" t="s">
+        <v>120</v>
       </c>
-      <c r="B8" s="67" t="s">
-        <v>127</v>
+      <c r="B8" s="62" t="s">
+        <v>123</v>
       </c>
-      <c r="C8" s="72" t="s">
-        <v>130</v>
+      <c r="C8" s="67" t="s">
+        <v>126</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -42104,15 +42145,15 @@
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
-        <v>125</v>
+      <c r="A9" s="58" t="s">
+        <v>121</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -42124,15 +42165,15 @@
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>126</v>
+      <c r="A10" s="68" t="s">
+        <v>122</v>
       </c>
-      <c r="B10" s="67" t="s">
-        <v>128</v>
+      <c r="B10" s="62" t="s">
+        <v>124</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -42144,9 +42185,9 @@
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="53"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -42160,9 +42201,9 @@
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -42176,9 +42217,9 @@
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -42192,9 +42233,9 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -42208,9 +42249,9 @@
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -42224,9 +42265,9 @@
       <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -42240,9 +42281,9 @@
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -42256,9 +42297,9 @@
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -42272,9 +42313,9 @@
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="55"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -42288,9 +42329,9 @@
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -42304,9 +42345,9 @@
       <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -42320,9 +42361,9 @@
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -42336,9 +42377,9 @@
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -42352,9 +42393,9 @@
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -42368,9 +42409,9 @@
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -42384,9 +42425,9 @@
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -42400,9 +42441,9 @@
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -42416,9 +42457,9 @@
       <c r="N27" s="6"/>
     </row>
     <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -43483,62 +43524,62 @@
     <mergeCell ref="F4:F5"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3 C2:D5 E1:F3 G1:J1000 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4 B5:B11">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3 C2:D5 E1:F3 G1:J1000 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4 B5:B11">
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3 C2:D5 E1:F3 G1:J1000 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4 B5:B11">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3 C2:D5 E1:F3 G1:J1000 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4 B5:B11">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43547,7 +43588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -43555,7 +43596,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -43575,7 +43616,7 @@
         <v>83</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>82</v>
@@ -43641,10 +43682,10 @@
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="72" t="s">
         <v>84</v>
       </c>
       <c r="G4" s="6"/>
@@ -43667,8 +43708,8 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="50"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -43714,7 +43755,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="9" t="s">
@@ -43742,7 +43783,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -43986,7 +44027,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -61668,58 +61709,58 @@
     <mergeCell ref="E4:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B7 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B7 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4">
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B7 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B7 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4">
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -61730,12 +61771,12 @@
     <col min="6" max="6" width="89.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>82</v>
@@ -61746,8 +61787,8 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
+      <c r="B2" s="74">
+        <v>36966</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -61756,40 +61797,40 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="78" t="s">
+        <v>128</v>
+      </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="72" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="50"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="72"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>59</v>
-      </c>
+      <c r="C5" s="21"/>
       <c r="D5" s="6"/>
       <c r="E5" s="13" t="s">
         <v>6</v>
@@ -61800,10 +61841,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -61816,7 +61857,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -61826,10 +61867,10 @@
     </row>
     <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
+      <c r="B8" s="75" t="s">
+        <v>4</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -61838,10 +61879,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
+      <c r="B9" s="75" t="s">
+        <v>4</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -61850,7 +61891,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -61860,10 +61901,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
+      <c r="B11" s="43" t="s">
+        <v>6</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -61872,10 +61913,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
+      <c r="B12" s="43" t="s">
+        <v>6</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -61884,7 +61925,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -61894,10 +61935,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>11</v>
+      <c r="B14" s="43" t="s">
+        <v>6</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -61906,10 +61947,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>11</v>
+      <c r="B15" s="43" t="s">
+        <v>6</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -61918,10 +61959,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>11</v>
+      <c r="B16" s="43" t="s">
+        <v>6</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -61930,10 +61971,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>11</v>
+      <c r="B17" s="43" t="s">
+        <v>6</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -61942,7 +61983,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -61952,10 +61993,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>11</v>
+      <c r="B19" s="43" t="s">
+        <v>6</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -61964,10 +62005,13 @@
     </row>
     <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>11</v>
+      <c r="B20" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -61976,7 +62020,12 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="77" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
@@ -62033,49 +62082,46 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Чек-лист-приклад (UK)(198).xlsx
+++ b/Чек-лист-приклад (UK)(198).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\ITStep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\New Papka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A90140-06A0-49D7-A3E5-F38D5D909EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Верстка" sheetId="1" r:id="rId1"/>
@@ -19,13 +18,14 @@
     <sheet name="Моб.пристрій (сайт)" sheetId="3" r:id="rId4"/>
     <sheet name="Моб.пристрій (додаток)" sheetId="5" r:id="rId5"/>
     <sheet name="Тест моб.гри" sheetId="10" r:id="rId6"/>
+    <sheet name="Чек-лист тестування дверей" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="167">
   <si>
     <t>Браузер версія</t>
   </si>
@@ -470,11 +470,74 @@
   <si>
     <t>https://qa31.mantishub.io/view.php?id=72</t>
   </si>
+  <si>
+    <t>Двері</t>
+  </si>
+  <si>
+    <t>Перевірити, що двері відкриваються</t>
+  </si>
+  <si>
+    <t>Перевірити, що двері закриваються</t>
+  </si>
+  <si>
+    <t>Спробувати закрити  вже закриті двері</t>
+  </si>
+  <si>
+    <t>Спробувати відкрити вже відкриті двері</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>Перевірити, що ручка дверей вміщуєтья в долоню</t>
+  </si>
+  <si>
+    <t>Перевірити, що висота дверей більша за людський зріст</t>
+  </si>
+  <si>
+    <t>Перевірити, що зусилля для повертання ключа в замку в межах допустимого</t>
+  </si>
+  <si>
+    <t>Перевірити, що ручка дверей знаходиться в проектному місці</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Перевірити, що правильним ключем двері відчиняються</t>
+  </si>
+  <si>
+    <t>Перевірити, що не правильним ключем двері не відчиняються</t>
+  </si>
+  <si>
+    <t>Перевірити, що закриті на ключ двері неможливо відкрити</t>
+  </si>
+  <si>
+    <t>Перевірити, що не закриті на ключ двері можливо відкрити</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перевірити наявність ручки </t>
+  </si>
+  <si>
+    <t>Перевірити табличку на дверях</t>
+  </si>
+  <si>
+    <t>Перевірити фарбування дверей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перевірити глазок </t>
+  </si>
+  <si>
+    <t>Наявність оновлення сторінок при протягуванні сторінки до низу</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -565,7 +628,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,12 +726,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -702,8 +759,20 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF990099"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9900CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -754,12 +823,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -859,12 +971,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -907,19 +1013,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -944,37 +1038,25 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1003,7 +1085,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1018,12 +1100,1593 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="156">
+  <dxfs count="240">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -3836,6 +5499,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9900CC"/>
+      <color rgb="FF990099"/>
       <color rgb="FF2BF52B"/>
     </mruColors>
   </colors>
@@ -3891,18 +5556,18 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Times New Roman/Arial">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Times New Roman" panose="02020603050405020304"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐ明朝"/>
+        <a:font script="Hang" typeface="바탕"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -3928,16 +5593,16 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Arial" panose="020B0604020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="돋움"/>
+        <a:font script="Hans" typeface="黑体"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -4112,7 +5777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4164,12 +5829,12 @@
       <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -4307,12 +5972,12 @@
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -4436,12 +6101,12 @@
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
@@ -4511,12 +6176,12 @@
       <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
@@ -23266,27 +24931,27 @@
     <mergeCell ref="A15:D15"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:D1 B3:D4 F3:F5 B26:D1000 B17:D24 B5">
-    <cfRule type="containsText" dxfId="155" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="239" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 B3:D4 F3:F5 B26:D1000 B17:D24 B5">
-    <cfRule type="containsText" dxfId="154" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="238" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 B3:D4 F3:F5 B26:D1000 B17:D24 B5">
-    <cfRule type="containsText" dxfId="153" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="237" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 B3:D4 F3:F5 B26:D1000 B17:D24 B5">
-    <cfRule type="containsText" dxfId="152" priority="4" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="236" priority="4" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -23294,7 +24959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -43513,78 +45178,78 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="151" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="235" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="150" priority="2" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="234" priority="2" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="149" priority="3" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="233" priority="3" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="148" priority="4" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="232" priority="4" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="147" priority="5" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="231" priority="5" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="146" priority="6" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="230" priority="6" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="145" priority="7" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="229" priority="7" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="144" priority="8" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="228" priority="8" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="143" priority="9" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="227" priority="9" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="142" priority="10" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="226" priority="10" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="141" priority="11" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="225" priority="11" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="140" priority="12" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="224" priority="12" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43600,22 +45265,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="18" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="34" t="s">
         <v>82</v>
       </c>
       <c r="G1" s="1"/>
@@ -43632,42 +45297,42 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="6"/>
       <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:18" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="45" t="s">
         <v>114</v>
       </c>
       <c r="G3" s="29" t="s">
@@ -43678,22 +45343,22 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="42"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="30" t="s">
         <v>6</v>
       </c>
@@ -43702,22 +45367,22 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="39"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="31" t="s">
         <v>4</v>
       </c>
@@ -43726,233 +45391,233 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="39"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="6"/>
       <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="6"/>
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="39"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="6"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="6"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="45" t="s">
         <v>115</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="6"/>
       <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
       <c r="G13" s="6"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="87" t="s">
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="75" t="s">
+      <c r="E14" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="45" t="s">
         <v>129</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:18" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="45" t="s">
         <v>121</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="45" t="s">
         <v>122</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="44" t="s">
         <v>145</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -43961,7 +45626,7 @@
       <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -43970,7 +45635,7 @@
       <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
+      <c r="A20" s="33"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -43979,7 +45644,7 @@
       <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -43988,7 +45653,7 @@
       <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+      <c r="A22" s="33"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
@@ -44008,182 +45673,178 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3:G5 C18:E23 C1:E3">
-    <cfRule type="containsText" dxfId="139" priority="33" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="223" priority="33" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G5 C18:E23 C1:E3">
-    <cfRule type="containsText" dxfId="138" priority="34" operator="containsText" text="Passed">
+  <conditionalFormatting sqref="C1:E17">
+    <cfRule type="containsText" dxfId="222" priority="34" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(C1))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G5 C18:E23 C1:E3">
-    <cfRule type="containsText" dxfId="137" priority="35" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="221" priority="35" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(C1))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G5 C18:E23 C1:E3">
-    <cfRule type="containsText" dxfId="136" priority="36" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="220" priority="36" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="219" priority="29" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="218" priority="30" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="217" priority="31" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="216" priority="32" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="215" priority="25" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="214" priority="26" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="213" priority="27" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="212" priority="28" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="211" priority="21" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="210" priority="22" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="209" priority="23" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="208" priority="24" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="207" priority="17" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="206" priority="18" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="205" priority="19" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="204" priority="20" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(F15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="203" priority="13" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="202" priority="14" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="201" priority="15" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="200" priority="16" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:E15">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="199" priority="9" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(C15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:E15">
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="198" priority="10" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(C15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:E15">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="197" priority="11" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(C15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:E15">
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="196" priority="12" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(C15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:E16">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="195" priority="5" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(C16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:E16">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="194" priority="6" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(C16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:E16">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="193" priority="7" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(C16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:E16">
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="192" priority="8" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(C16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:E17">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="191" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(C17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:E17">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="190" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(C17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:E17">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="189" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(C17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:E17">
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="188" priority="4" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(C17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44193,7 +45854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -44201,7 +45862,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:C24"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -44217,13 +45878,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>82</v>
       </c>
       <c r="D1" s="1"/>
@@ -44241,11 +45902,11 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -44261,11 +45922,11 @@
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="81"/>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -44281,16 +45942,16 @@
       <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="80" t="s">
         <v>84</v>
       </c>
       <c r="G4" s="6"/>
@@ -44305,16 +45966,16 @@
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="50"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -44327,13 +45988,13 @@
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="6"/>
       <c r="E6" s="12" t="s">
         <v>6</v>
@@ -44353,13 +46014,13 @@
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>10</v>
+      <c r="B7" s="41" t="s">
+        <v>120</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="44" t="s">
         <v>110</v>
       </c>
       <c r="D7" s="6"/>
@@ -44381,13 +46042,13 @@
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="75" t="s">
-        <v>10</v>
+      <c r="B8" s="41" t="s">
+        <v>120</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="45" t="s">
         <v>111</v>
       </c>
       <c r="D8" s="6"/>
@@ -44405,13 +46066,13 @@
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -44427,13 +46088,13 @@
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -44449,13 +46110,13 @@
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -44471,13 +46132,13 @@
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -44493,13 +46154,13 @@
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="39"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -44515,13 +46176,13 @@
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="39"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -44537,13 +46198,13 @@
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="39"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -44559,13 +46220,13 @@
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -44581,13 +46242,13 @@
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -44603,13 +46264,13 @@
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="39"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -44625,13 +46286,13 @@
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="75" t="s">
-        <v>10</v>
+      <c r="B19" s="41" t="s">
+        <v>120</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="45" t="s">
         <v>116</v>
       </c>
       <c r="D19" s="6"/>
@@ -44649,9 +46310,9 @@
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -44667,11 +46328,11 @@
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -44687,13 +46348,13 @@
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="45" t="s">
         <v>121</v>
       </c>
       <c r="D22" s="6"/>
@@ -44711,13 +46372,13 @@
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="45" t="s">
         <v>122</v>
       </c>
       <c r="D23" s="6"/>
@@ -44735,13 +46396,13 @@
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="44" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="6"/>
@@ -44759,7 +46420,7 @@
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -44777,7 +46438,7 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -44795,7 +46456,7 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -44813,7 +46474,7 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -62331,259 +63992,319 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="E4:E5"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B7 F8:F1000 B20:B21 B30:B1000 D30:D1000 C49:C1000 C7:D21 D6 D1 E6:E1000 E4 B25:D28 D22:D24">
-    <cfRule type="containsText" dxfId="135" priority="41" operator="containsText" text="not run">
+  <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B6 F8:F1000 B20:B21 B30:B1000 D30:D1000 C49:C1000 C7:D21 D6 D1 E6:E1000 E4 B25:D28 D22:D24">
+    <cfRule type="containsText" dxfId="187" priority="53" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B7 F8:F1000 B20:B21 B30:B1000 D30:D1000 C49:C1000 C7:D21 D6 D1 E6:E1000 E4 B25:D28 D22:D24">
-    <cfRule type="containsText" dxfId="134" priority="42" operator="containsText" text="Passed">
+  <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B6 F8:F1000 B20:B21 B30:B1000 D30:D1000 C49:C1000 C7:D21 D6 D1 E6:E1000 E4 B25:D28 D22:D24">
+    <cfRule type="containsText" dxfId="186" priority="54" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B7 F8:F1000 B20:B21 B30:B1000 D30:D1000 C49:C1000 C7:D21 D6 D1 E6:E1000 E4 B25:D28 D22:D24">
-    <cfRule type="containsText" dxfId="133" priority="43" operator="containsText" text="Failed">
+  <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B6 F8:F1000 B20:B21 B30:B1000 D30:D1000 C49:C1000 C7:D21 D6 D1 E6:E1000 E4 B25:D28 D22:D24">
+    <cfRule type="containsText" dxfId="185" priority="55" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B7 F8:F1000 B20:B21 B30:B1000 D30:D1000 C49:C1000 C7:D21 D6 D1 E6:E1000 E4 B25:D28 D22:D24">
-    <cfRule type="containsText" dxfId="132" priority="44" operator="containsText" text="Skipped">
+  <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B6 F8:F1000 B20:B21 B30:B1000 D30:D1000 C49:C1000 C7:D21 D6 D1 E6:E1000 E4 B25:D28 D22:D24">
+    <cfRule type="containsText" dxfId="184" priority="56" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="131" priority="45" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="183" priority="57" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="130" priority="46" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="182" priority="58" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="129" priority="47" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="181" priority="59" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="128" priority="48" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="180" priority="60" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="71" priority="37" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="179" priority="49" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="70" priority="38" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="178" priority="50" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="69" priority="39" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="177" priority="51" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="68" priority="40" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="176" priority="52" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="67" priority="33" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="175" priority="45" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="66" priority="34" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="174" priority="46" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="65" priority="35" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="173" priority="47" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="64" priority="36" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="172" priority="48" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="63" priority="29" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="171" priority="41" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="62" priority="30" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="170" priority="42" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="61" priority="31" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="169" priority="43" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="60" priority="32" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="168" priority="44" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="59" priority="25" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="167" priority="37" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="58" priority="26" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="166" priority="38" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="57" priority="27" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="165" priority="39" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="56" priority="28" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="164" priority="40" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="55" priority="21" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="163" priority="33" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="54" priority="22" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="162" priority="34" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="53" priority="23" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="161" priority="35" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="52" priority="24" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="160" priority="36" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="159" priority="29" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="containsText" dxfId="50" priority="18" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="158" priority="30" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="containsText" dxfId="49" priority="19" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="157" priority="31" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="containsText" dxfId="48" priority="20" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="156" priority="32" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B17))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="containsText" dxfId="47" priority="13" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="155" priority="25" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="containsText" dxfId="46" priority="14" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="154" priority="26" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="containsText" dxfId="45" priority="15" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="153" priority="27" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="containsText" dxfId="44" priority="16" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="152" priority="28" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="containsText" dxfId="43" priority="9" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="151" priority="21" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B22))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="containsText" dxfId="42" priority="10" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="150" priority="22" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B22))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="149" priority="23" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B22))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C22">
-    <cfRule type="containsText" dxfId="40" priority="12" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="148" priority="24" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B22))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23">
-    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="147" priority="17" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23">
-    <cfRule type="containsText" dxfId="38" priority="6" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="146" priority="18" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23">
-    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="145" priority="19" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23">
-    <cfRule type="containsText" dxfId="36" priority="8" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="144" priority="20" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="143" priority="13" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="142" priority="14" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="141" priority="15" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="140" priority="16" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B24))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="not run">
+      <formula>NOT(ISERROR(SEARCH(("not run"),(B19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(B19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(B19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH(("Skipped"),(B19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="not run">
+      <formula>NOT(ISERROR(SEARCH(("not run"),(B8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(B8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(B8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH(("Skipped"),(B8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="not run">
+      <formula>NOT(ISERROR(SEARCH(("not run"),(B7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(B7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(B7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH(("Skipped"),(B7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -62595,13 +64316,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>82</v>
       </c>
       <c r="D1" s="1"/>
@@ -62609,51 +64330,51 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="71">
+      <c r="A2" s="36"/>
+      <c r="B2" s="61">
         <v>36966</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="80" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="39"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="50"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="80"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="6"/>
       <c r="E5" s="12" t="s">
         <v>6</v>
@@ -62663,13 +64384,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="6"/>
       <c r="E6" s="8" t="s">
         <v>4</v>
@@ -62679,205 +64400,223 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="39"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="39"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="39"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="39"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="44" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="40"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="42"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
+      <c r="C23" s="40"/>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="97" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="99"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="100"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="100"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="100"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="100"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="100"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="100"/>
+      <c r="B31" s="100"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
@@ -62913,56 +64652,100 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="127" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="139" priority="9" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="126" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="138" priority="10" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="125" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="137" priority="11" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="124" priority="4" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="136" priority="12" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="123" priority="5" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="135" priority="13" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="122" priority="6" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="134" priority="14" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="121" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="133" priority="15" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="120" priority="8" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="132" priority="16" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="not run">
+      <formula>NOT(ISERROR(SEARCH(("not run"),(B20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(B20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(B20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH(("Skipped"),(B20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="not run">
+      <formula>NOT(ISERROR(SEARCH(("not run"),(B24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(B24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(B24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH(("Skipped"),(B24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C24" r:id="rId1"/>
+    <hyperlink ref="C20" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D787797D-53CD-4DDD-A4D7-56A3CBD424DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -62976,13 +64759,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>82</v>
       </c>
       <c r="D1" s="1"/>
@@ -62990,51 +64773,51 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="71">
+      <c r="A2" s="36"/>
+      <c r="B2" s="61">
         <v>36966</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="80" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="39"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="50"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="80"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="6"/>
       <c r="E5" s="12" t="s">
         <v>6</v>
@@ -63044,11 +64827,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="6"/>
       <c r="E6" s="8" t="s">
         <v>4</v>
@@ -63058,119 +64841,119 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="39"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="39"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="39"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="39"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="45" t="s">
         <v>143</v>
       </c>
       <c r="D16" s="6"/>
@@ -63178,73 +64961,73 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
-      <c r="B17" s="69"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="64"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="93"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="64"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="85"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
-      <c r="B23" s="64"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="85"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
-      <c r="B24" s="64"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="85"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="64"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="85"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
-      <c r="B26" s="64"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="85"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="64"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="85"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="85"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
-      <c r="B29" s="64"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="85"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
-      <c r="B30" s="64"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="85"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
@@ -63280,246 +65063,749 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="119" priority="41" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="131" priority="41" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="118" priority="42" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="130" priority="42" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="117" priority="43" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="129" priority="43" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="116" priority="44" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="128" priority="44" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="115" priority="45" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="127" priority="45" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="114" priority="46" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="126" priority="46" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="113" priority="47" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="125" priority="47" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="112" priority="48" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="124" priority="48" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="111" priority="37" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="123" priority="37" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="110" priority="38" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="122" priority="38" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="109" priority="39" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="121" priority="39" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="108" priority="40" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="120" priority="40" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="107" priority="33" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="119" priority="33" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="106" priority="34" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="118" priority="34" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="105" priority="35" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="117" priority="35" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="104" priority="36" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="116" priority="36" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="103" priority="29" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="115" priority="29" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="102" priority="30" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="114" priority="30" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="101" priority="31" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="113" priority="31" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="100" priority="32" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="112" priority="32" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B8))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="containsText" dxfId="99" priority="25" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="111" priority="25" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="containsText" dxfId="98" priority="26" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="110" priority="26" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="containsText" dxfId="97" priority="27" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="109" priority="27" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="containsText" dxfId="96" priority="28" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="108" priority="28" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="95" priority="21" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="107" priority="21" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="94" priority="22" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="106" priority="22" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="93" priority="23" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="105" priority="23" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="92" priority="24" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="104" priority="24" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="containsText" dxfId="91" priority="17" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="103" priority="17" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="containsText" dxfId="90" priority="18" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="102" priority="18" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="containsText" dxfId="89" priority="19" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="101" priority="19" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="containsText" dxfId="88" priority="20" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="100" priority="20" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="87" priority="13" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="99" priority="13" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="86" priority="14" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="98" priority="14" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="85" priority="15" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="97" priority="15" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="84" priority="16" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="96" priority="16" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="83" priority="9" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="95" priority="9" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="82" priority="10" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="94" priority="10" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="81" priority="11" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="93" priority="11" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="80" priority="12" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="92" priority="12" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="90" priority="6" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="77" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="89" priority="7" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="containsText" dxfId="76" priority="8" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="88" priority="8" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="75" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="74" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="86" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="85" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="84" priority="4" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="56" style="18" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" style="18" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="18"/>
+    <col min="6" max="6" width="89.140625" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="36"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="80"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="62"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="62"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="87" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="66"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="88" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="40"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="40"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="82"/>
+      <c r="B23" s="83"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="84"/>
+      <c r="B24" s="85"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="84"/>
+      <c r="B25" s="85"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="84"/>
+      <c r="B26" s="85"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="84"/>
+      <c r="B27" s="85"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="84"/>
+      <c r="B28" s="85"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="84"/>
+      <c r="B29" s="85"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="84"/>
+      <c r="B30" s="85"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B1:B2 E1:F2 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
+    <cfRule type="containsText" dxfId="83" priority="57" operator="containsText" text="not run">
+      <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B2 E1:F2 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
+    <cfRule type="containsText" dxfId="82" priority="58" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B2 E1:F2 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
+    <cfRule type="containsText" dxfId="81" priority="59" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B2 E1:F2 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
+    <cfRule type="containsText" dxfId="80" priority="60" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="containsText" dxfId="79" priority="61" operator="containsText" text="not run">
+      <formula>NOT(ISERROR(SEARCH(("not run"),(A2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="containsText" dxfId="78" priority="62" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(A2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="containsText" dxfId="77" priority="63" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(A2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="containsText" dxfId="76" priority="64" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH(("Skipped"),(A2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="containsText" dxfId="67" priority="45" operator="containsText" text="not run">
+      <formula>NOT(ISERROR(SEARCH(("not run"),(B8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="containsText" dxfId="66" priority="46" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(B8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="containsText" dxfId="65" priority="47" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(B8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="containsText" dxfId="64" priority="48" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH(("Skipped"),(B8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="containsText" dxfId="51" priority="29" operator="containsText" text="not run">
+      <formula>NOT(ISERROR(SEARCH(("not run"),(B13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="containsText" dxfId="50" priority="30" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(B13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="containsText" dxfId="49" priority="31" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(B13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="containsText" dxfId="48" priority="32" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH(("Skipped"),(B13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B7">
+    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="not run">
+      <formula>NOT(ISERROR(SEARCH(("not run"),(B4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B7">
+    <cfRule type="containsText" dxfId="34" priority="14" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(B4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B7">
+    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(B4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B7">
+    <cfRule type="containsText" dxfId="32" priority="16" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH(("Skipped"),(B4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B12">
+    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="not run">
+      <formula>NOT(ISERROR(SEARCH(("not run"),(B9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B12">
+    <cfRule type="containsText" dxfId="30" priority="10" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(B9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B12">
+    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(B9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B12">
+    <cfRule type="containsText" dxfId="28" priority="12" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH(("Skipped"),(B9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B17">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="not run">
+      <formula>NOT(ISERROR(SEARCH(("not run"),(B14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B17">
+    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(B14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B17">
+    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(B14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B17">
+    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH(("Skipped"),(B14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B22">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="not run">
+      <formula>NOT(ISERROR(SEARCH(("not run"),(B19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B22">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(B19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B22">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(B19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B22">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH(("Skipped"),(B19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>